--- a/data-raw/pilzgruppen.xlsx
+++ b/data-raw/pilzgruppen.xlsx
@@ -161,8 +161,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -357,113 +361,116 @@
   </sheetPr>
   <dimension ref="A1:B19"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A12" activeCellId="0" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.01953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.91"/>
+  </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+      <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+      <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+      <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+      <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+      <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+      <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+      <c r="A11" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
+      <c r="A12" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
+      <c r="A13" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
+      <c r="A14" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
+      <c r="A15" s="1" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
+      <c r="A16" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="0" t="s">
+      <c r="B16" s="1" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
+      <c r="A17" s="1" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
+      <c r="A18" s="1" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
+      <c r="A19" s="1" t="s">
         <v>21</v>
       </c>
     </row>
